--- a/Code/Results/Cases/Case_2_150/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_150/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.443008136286494</v>
+        <v>1.44174971086602</v>
       </c>
       <c r="C2">
-        <v>0.4814556933098686</v>
+        <v>0.2640045443680492</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.03542665137749168</v>
+        <v>0.09596278397741465</v>
       </c>
       <c r="F2">
-        <v>1.45952168114772</v>
+        <v>0.4443680307746121</v>
       </c>
       <c r="G2">
-        <v>0.0007951252346298232</v>
+        <v>0.002431580731880127</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -451,7 +451,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.3252720556287585</v>
+        <v>0.219633493926338</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.9936988722623425</v>
+        <v>2.390920195325748</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.992284400130472</v>
+        <v>1.303140114108146</v>
       </c>
       <c r="C3">
-        <v>0.4370107403479722</v>
+        <v>0.2491817021483769</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.03613566842770588</v>
+        <v>0.09721320375492404</v>
       </c>
       <c r="F3">
-        <v>1.26082040731464</v>
+        <v>0.3878228170618172</v>
       </c>
       <c r="G3">
-        <v>0.0007998841012082291</v>
+        <v>0.002434612479328385</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -498,7 +498,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.2852217666267194</v>
+        <v>0.2093033950525154</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.002092338701516</v>
+        <v>2.431778622624023</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.716325223440322</v>
+        <v>1.218024777860876</v>
       </c>
       <c r="C4">
-        <v>0.4097897962712693</v>
+        <v>0.2400666556826536</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.0366844150704484</v>
+        <v>0.09804550853818128</v>
       </c>
       <c r="F4">
-        <v>1.139972825279813</v>
+        <v>0.3531389305169483</v>
       </c>
       <c r="G4">
-        <v>0.0008028934212114871</v>
+        <v>0.002436571690183954</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -545,7 +545,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.2609015461637796</v>
+        <v>0.2030581434057979</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.012828018683095</v>
+        <v>2.459274812000729</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.604016102512958</v>
+        <v>1.183339318764922</v>
       </c>
       <c r="C5">
-        <v>0.3987104303358535</v>
+        <v>0.2363490481393455</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.03693545027916834</v>
+        <v>0.09840090219977249</v>
       </c>
       <c r="F5">
-        <v>1.090973950927975</v>
+        <v>0.3390132514313251</v>
       </c>
       <c r="G5">
-        <v>0.0008041422655039043</v>
+        <v>0.002437394728222686</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -592,7 +592,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.2510513850095748</v>
+        <v>0.2005377278387783</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.018526370841855</v>
+        <v>2.471083789701794</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.585374671436114</v>
+        <v>1.177579863928827</v>
       </c>
       <c r="C6">
-        <v>0.3968714131757167</v>
+        <v>0.23573156101574</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.03697875924285476</v>
+        <v>0.09846089465513153</v>
       </c>
       <c r="F6">
-        <v>1.082851457025441</v>
+        <v>0.336668177824194</v>
       </c>
       <c r="G6">
-        <v>0.0008043510111297929</v>
+        <v>0.002437532883847697</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -639,7 +639,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.2494192163523365</v>
+        <v>0.2001207009989514</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.019550253361018</v>
+        <v>2.473081095364051</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.714810055603152</v>
+        <v>1.217556996225653</v>
       </c>
       <c r="C7">
-        <v>0.4096403266720472</v>
+        <v>0.240016531077373</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.03668769102440805</v>
+        <v>0.09805023582543448</v>
       </c>
       <c r="F7">
-        <v>1.139311062524612</v>
+        <v>0.3529483938344953</v>
       </c>
       <c r="G7">
-        <v>0.0008029101716342023</v>
+        <v>0.00243658269036956</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -686,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.2607684680481839</v>
+        <v>0.2030240526072475</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.012899612627919</v>
+        <v>2.459431628454055</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.287403036058151</v>
+        <v>1.39395995063694</v>
       </c>
       <c r="C8">
-        <v>0.4661144585566603</v>
+        <v>0.2588966636075156</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.03564690270167148</v>
+        <v>0.0963805289373969</v>
       </c>
       <c r="F8">
-        <v>1.390742831773508</v>
+        <v>0.4248636149813478</v>
       </c>
       <c r="G8">
-        <v>0.0007967483052011712</v>
+        <v>0.002432605844709387</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -733,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.3114017903956636</v>
+        <v>0.2160514809068417</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.9953846975344902</v>
+        <v>2.40450718872053</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.419062637357456</v>
+        <v>1.73975455471782</v>
       </c>
       <c r="C9">
-        <v>0.5775973966021013</v>
+        <v>0.2957997796023335</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.03455832468464237</v>
+        <v>0.09361865697893457</v>
       </c>
       <c r="F9">
-        <v>1.895061171842798</v>
+        <v>0.5661985755041457</v>
       </c>
       <c r="G9">
-        <v>0.0007853311755239675</v>
+        <v>0.002425579088038114</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -780,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.4132133300160632</v>
+        <v>0.2423703286894181</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.009185594687864</v>
+        <v>2.315990132728004</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.25980479540965</v>
+        <v>1.993671093130786</v>
       </c>
       <c r="C10">
-        <v>0.660257719093778</v>
+        <v>0.3228262143030349</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.03441704283887859</v>
+        <v>0.0919023120619773</v>
       </c>
       <c r="F10">
-        <v>2.275587181990815</v>
+        <v>0.6702781546542269</v>
       </c>
       <c r="G10">
-        <v>0.0007773089313863812</v>
+        <v>0.002420882240507374</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.4901129656896472</v>
+        <v>0.2621780942683074</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.054437795240943</v>
+        <v>2.262758908652387</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.645272581610868</v>
+        <v>2.1091437457697</v>
       </c>
       <c r="C11">
-        <v>0.6981014772682386</v>
+        <v>0.3351000648873708</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.0345144748465529</v>
+        <v>0.09118951568940048</v>
       </c>
       <c r="F11">
-        <v>2.451628164639231</v>
+        <v>0.7176906081379002</v>
       </c>
       <c r="G11">
-        <v>0.0007737291674546239</v>
+        <v>0.002418845620880235</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.5256896062615368</v>
+        <v>0.2712917998551205</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.084048859633498</v>
+        <v>2.241127654197072</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.791759565788368</v>
+        <v>2.152863750121583</v>
       </c>
       <c r="C12">
-        <v>0.7124734329732405</v>
+        <v>0.3397446319501967</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.03457632377216768</v>
+        <v>0.09092938184653754</v>
       </c>
       <c r="F12">
-        <v>2.518780942186339</v>
+        <v>0.7356546913071611</v>
       </c>
       <c r="G12">
-        <v>0.0007723827429953478</v>
+        <v>0.00241808870821739</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -921,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.5392594885029212</v>
+        <v>0.2747577177325553</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.096688188368887</v>
+        <v>2.233309867180935</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.760186451274762</v>
+        <v>2.143448205687093</v>
       </c>
       <c r="C13">
-        <v>0.7093762232625522</v>
+        <v>0.3387444918209042</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.03456186512850046</v>
+        <v>0.09098497087505741</v>
       </c>
       <c r="F13">
-        <v>2.504295469236112</v>
+        <v>0.7317853510981394</v>
       </c>
       <c r="G13">
-        <v>0.0007726723267455871</v>
+        <v>0.002418251087593061</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.536332415573554</v>
+        <v>0.2740106150552037</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.093900483099901</v>
+        <v>2.234976925158435</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.657313238410495</v>
+        <v>2.112740767656931</v>
       </c>
       <c r="C14">
-        <v>0.6992829976092878</v>
+        <v>0.3354822435848916</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.03451905285727186</v>
+        <v>0.09116791811578651</v>
       </c>
       <c r="F14">
-        <v>2.457142640142251</v>
+        <v>0.7191683204515869</v>
       </c>
       <c r="G14">
-        <v>0.0007736182178917154</v>
+        <v>0.00241878306289057</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1015,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.5268039747701323</v>
+        <v>0.2715766476447783</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.085059344517731</v>
+        <v>2.240476983572734</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.594370658094704</v>
+        <v>2.093930609467577</v>
       </c>
       <c r="C15">
-        <v>0.6931061986742861</v>
+        <v>0.3334835868823518</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.03449613160609388</v>
+        <v>0.09128125344040861</v>
       </c>
       <c r="F15">
-        <v>2.428326063099846</v>
+        <v>0.7114413442032514</v>
       </c>
       <c r="G15">
-        <v>0.0007741987692347638</v>
+        <v>0.002419110774552677</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.520980646437792</v>
+        <v>0.2700876920446404</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.079833636793069</v>
+        <v>2.243894626317342</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.234681300693865</v>
+        <v>1.986123810104459</v>
       </c>
       <c r="C16">
-        <v>0.6577899488419519</v>
+        <v>0.3220236479608332</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.03441407163096599</v>
+        <v>0.09195026385448202</v>
       </c>
       <c r="F16">
-        <v>2.26414724522013</v>
+        <v>0.6671810134426437</v>
       </c>
       <c r="G16">
-        <v>0.0007775442064029872</v>
+        <v>0.002421017344749403</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1109,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.4878009387057745</v>
+        <v>0.2615845604096592</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.052694982626605</v>
+        <v>2.264224722368766</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.01485312788941</v>
+        <v>1.919977430852327</v>
       </c>
       <c r="C17">
-        <v>0.6361908875248332</v>
+        <v>0.314987845751233</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.03440631465400656</v>
+        <v>0.09237809900899663</v>
       </c>
       <c r="F17">
-        <v>2.1642275708721</v>
+        <v>0.6400460337125793</v>
       </c>
       <c r="G17">
-        <v>0.0007796137633408473</v>
+        <v>0.002422212527016537</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.4676069581561535</v>
+        <v>0.2563945134032082</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.038445859320916</v>
+        <v>2.277359755777837</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.888691500749474</v>
+        <v>1.881928577363169</v>
       </c>
       <c r="C18">
-        <v>0.6237899423882141</v>
+        <v>0.3109391167244553</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.03441696369520919</v>
+        <v>0.09263057615183357</v>
       </c>
       <c r="F18">
-        <v>2.107028586650728</v>
+        <v>0.6244449056556647</v>
       </c>
       <c r="G18">
-        <v>0.0007808107233642339</v>
+        <v>0.002422909380745618</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.4560470860291588</v>
+        <v>0.2534190392630222</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.031091354601813</v>
+        <v>2.28515777241121</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.846020550101116</v>
+        <v>1.869045397523848</v>
       </c>
       <c r="C19">
-        <v>0.6195948263267894</v>
+        <v>0.3095679661151678</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.03442311488761263</v>
+        <v>0.09271715902792543</v>
       </c>
       <c r="F19">
-        <v>2.087706772594743</v>
+        <v>0.619163680173358</v>
       </c>
       <c r="G19">
-        <v>0.0007812171527807296</v>
+        <v>0.002423146942975808</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1250,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.4521422309242809</v>
+        <v>0.2524132634103751</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.028741992793329</v>
+        <v>2.287839739187604</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.038224871526552</v>
+        <v>1.927019171567338</v>
       </c>
       <c r="C20">
-        <v>0.6384877939852061</v>
+        <v>0.3157370200570995</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.0344055646090311</v>
+        <v>0.09233189300666922</v>
       </c>
       <c r="F20">
-        <v>2.174835551210137</v>
+        <v>0.642933953830422</v>
       </c>
       <c r="G20">
-        <v>0.0007793927777632067</v>
+        <v>0.002422084323819896</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.4697508463108306</v>
+        <v>0.2569459989445875</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.039874745790286</v>
+        <v>2.275936335792608</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.687514793704622</v>
+        <v>2.121760491200689</v>
       </c>
       <c r="C21">
-        <v>0.7022464442144667</v>
+        <v>0.336440536266565</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.0345309363900963</v>
+        <v>0.09111391637682864</v>
       </c>
       <c r="F21">
-        <v>2.470978708896922</v>
+        <v>0.7228739723491628</v>
       </c>
       <c r="G21">
-        <v>0.0007733401454305614</v>
+        <v>0.0024186264208174</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.529599951816806</v>
+        <v>0.2722911629177389</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.087616413238607</v>
+        <v>2.238851330985852</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.11493234285183</v>
+        <v>2.248993629461609</v>
       </c>
       <c r="C22">
-        <v>0.7441609676755547</v>
+        <v>0.3499522583138344</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.03475921300328544</v>
+        <v>0.09037494781642152</v>
       </c>
       <c r="F22">
-        <v>2.667416158031983</v>
+        <v>0.7751780083420101</v>
       </c>
       <c r="G22">
-        <v>0.0007694373115096189</v>
+        <v>0.002416449866247155</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.5692912434727901</v>
+        <v>0.2824060915957745</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.127199687436217</v>
+        <v>2.216792075719979</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.886500262011054</v>
+        <v>2.181091338076669</v>
       </c>
       <c r="C23">
-        <v>0.7217656476608454</v>
+        <v>0.3427426580650774</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.03462338898178174</v>
+        <v>0.09076412538550471</v>
       </c>
       <c r="F23">
-        <v>2.562285531758803</v>
+        <v>0.7472568307830727</v>
       </c>
       <c r="G23">
-        <v>0.0007715157867815191</v>
+        <v>0.002417603927283056</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.5480501636876767</v>
+        <v>0.2769997175871026</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.105261008503163</v>
+        <v>2.228365594037371</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.027657825759945</v>
+        <v>1.923835664051467</v>
       </c>
       <c r="C24">
-        <v>0.6374493112312223</v>
+        <v>0.315398330020713</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.03440585677130592</v>
+        <v>0.09235276246623592</v>
       </c>
       <c r="F24">
-        <v>2.170038921572868</v>
+        <v>0.6416283278902171</v>
       </c>
       <c r="G24">
-        <v>0.0007794926629805017</v>
+        <v>0.002422142254096518</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1485,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.4687814399127319</v>
+        <v>0.2566966463105302</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.039226147142585</v>
+        <v>2.276579096235167</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.11158886471361</v>
+        <v>1.646228174407383</v>
       </c>
       <c r="C25">
-        <v>0.5473296388272786</v>
+        <v>0.2858307651922019</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.03474314236099652</v>
+        <v>0.09431091522747792</v>
       </c>
       <c r="F25">
-        <v>1.757113814925063</v>
+        <v>0.5279251897347166</v>
       </c>
       <c r="G25">
-        <v>0.000788352467682385</v>
+        <v>0.002427397882168111</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1532,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.3853454570995183</v>
+        <v>0.2351676659169186</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0.9997298211962544</v>
+        <v>2.337871227421431</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_150/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_150/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.44174971086602</v>
+        <v>3.443008136286494</v>
       </c>
       <c r="C2">
-        <v>0.2640045443680492</v>
+        <v>0.4814556933098686</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.09596278397741465</v>
+        <v>0.03542665137749879</v>
       </c>
       <c r="F2">
-        <v>0.4443680307746121</v>
+        <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.002431580731880127</v>
+        <v>0.0007951252346464046</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -451,7 +451,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.219633493926338</v>
+        <v>0.3252720556288153</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>2.390920195325748</v>
+        <v>0.9936988722623568</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.303140114108146</v>
+        <v>2.992284400130359</v>
       </c>
       <c r="C3">
-        <v>0.2491817021483769</v>
+        <v>0.4370107403480006</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.09721320375492404</v>
+        <v>0.03613566842771654</v>
       </c>
       <c r="F3">
-        <v>0.3878228170618172</v>
+        <v>1.260820407314654</v>
       </c>
       <c r="G3">
-        <v>0.002434612479328385</v>
+        <v>0.0007998841012070837</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -498,7 +498,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.2093033950525154</v>
+        <v>0.2852217666267194</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>2.431778622624023</v>
+        <v>1.002092338701502</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.218024777860876</v>
+        <v>2.716325223440435</v>
       </c>
       <c r="C4">
-        <v>0.2400666556826536</v>
+        <v>0.4097897962710988</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.09804550853818128</v>
+        <v>0.03668441507045372</v>
       </c>
       <c r="F4">
-        <v>0.3531389305169483</v>
+        <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.002436571690183954</v>
+        <v>0.0008028934212127461</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -545,7 +545,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.2030581434057979</v>
+        <v>0.2609015461636943</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>2.459274812000729</v>
+        <v>1.012828018683066</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.183339318764922</v>
+        <v>2.604016102512901</v>
       </c>
       <c r="C5">
-        <v>0.2363490481393455</v>
+        <v>0.3987104303358535</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.09840090219977249</v>
+        <v>0.03693545027916301</v>
       </c>
       <c r="F5">
-        <v>0.3390132514313251</v>
+        <v>1.090973950927989</v>
       </c>
       <c r="G5">
-        <v>0.002437394728222686</v>
+        <v>0.0008041422655021111</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -592,7 +592,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.2005377278387783</v>
+        <v>0.2510513850095464</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>2.471083789701794</v>
+        <v>1.018526370841855</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.177579863928827</v>
+        <v>2.585374671436171</v>
       </c>
       <c r="C6">
-        <v>0.23573156101574</v>
+        <v>0.396871413175262</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.09846089465513153</v>
+        <v>0.03697875924285654</v>
       </c>
       <c r="F6">
-        <v>0.336668177824194</v>
+        <v>1.082851457025455</v>
       </c>
       <c r="G6">
-        <v>0.002437532883847697</v>
+        <v>0.0008043510111453396</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -639,7 +639,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.2001207009989514</v>
+        <v>0.2494192163523508</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>2.473081095364051</v>
+        <v>1.019550253361103</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.217556996225653</v>
+        <v>2.714810055603095</v>
       </c>
       <c r="C7">
-        <v>0.240016531077373</v>
+        <v>0.4096403266718482</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.09805023582543448</v>
+        <v>0.03668769102438141</v>
       </c>
       <c r="F7">
-        <v>0.3529483938344953</v>
+        <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>0.00243658269036956</v>
+        <v>0.000802910171633811</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -686,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.2030240526072475</v>
+        <v>0.2607684680482123</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>2.459431628454055</v>
+        <v>1.012899612627919</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.39395995063694</v>
+        <v>3.287403036057867</v>
       </c>
       <c r="C8">
-        <v>0.2588966636075156</v>
+        <v>0.4661144585566603</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.0963805289373969</v>
+        <v>0.03564690270169812</v>
       </c>
       <c r="F8">
-        <v>0.4248636149813478</v>
+        <v>1.39074283177348</v>
       </c>
       <c r="G8">
-        <v>0.002432605844709387</v>
+        <v>0.000796748305183018</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -733,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.2160514809068417</v>
+        <v>0.3114017903957063</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>2.40450718872053</v>
+        <v>0.995384697534476</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.73975455471782</v>
+        <v>4.41906263735757</v>
       </c>
       <c r="C9">
-        <v>0.2957997796023335</v>
+        <v>0.577597396602556</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.09361865697893457</v>
+        <v>0.0345583246846406</v>
       </c>
       <c r="F9">
-        <v>0.5661985755041457</v>
+        <v>1.895061171842812</v>
       </c>
       <c r="G9">
-        <v>0.002425579088038114</v>
+        <v>0.0007853311754653461</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -780,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.2423703286894181</v>
+        <v>0.4132133300160774</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.315990132728004</v>
+        <v>1.00918559468785</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.993671093130786</v>
+        <v>5.259804795409764</v>
       </c>
       <c r="C10">
-        <v>0.3228262143030349</v>
+        <v>0.6602577190940337</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.0919023120619773</v>
+        <v>0.03441704283886615</v>
       </c>
       <c r="F10">
-        <v>0.6702781546542269</v>
+        <v>2.275587181990787</v>
       </c>
       <c r="G10">
-        <v>0.002420882240507374</v>
+        <v>0.0007773089313860598</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2621780942683074</v>
+        <v>0.4901129656897183</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.262758908652387</v>
+        <v>1.054437795241029</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.1091437457697</v>
+        <v>5.645272581610868</v>
       </c>
       <c r="C11">
-        <v>0.3351000648873708</v>
+        <v>0.6981014772681533</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.09118951568940048</v>
+        <v>0.03451447484656534</v>
       </c>
       <c r="F11">
-        <v>0.7176906081379002</v>
+        <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>0.002418845620880235</v>
+        <v>0.0007737291674345202</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.2712917998551205</v>
+        <v>0.5256896062615795</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.241127654197072</v>
+        <v>1.084048859633526</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.152863750121583</v>
+        <v>5.791759565788254</v>
       </c>
       <c r="C12">
-        <v>0.3397446319501967</v>
+        <v>0.7124734329731268</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.09092938184653754</v>
+        <v>0.03457632377217301</v>
       </c>
       <c r="F12">
-        <v>0.7356546913071611</v>
+        <v>2.518780942186368</v>
       </c>
       <c r="G12">
-        <v>0.00241808870821739</v>
+        <v>0.0007723827429568832</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -921,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2747577177325553</v>
+        <v>0.5392594885028785</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.233309867180935</v>
+        <v>1.09668818836883</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.143448205687093</v>
+        <v>5.760186451275274</v>
       </c>
       <c r="C13">
-        <v>0.3387444918209042</v>
+        <v>0.7093762232627512</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.09098497087505741</v>
+        <v>0.03456186512849868</v>
       </c>
       <c r="F13">
-        <v>0.7317853510981394</v>
+        <v>2.504295469236112</v>
       </c>
       <c r="G13">
-        <v>0.002418251087593061</v>
+        <v>0.0007726723266895764</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2740106150552037</v>
+        <v>0.5363324155736677</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.234976925158435</v>
+        <v>1.093900483099986</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.112740767656931</v>
+        <v>5.657313238410211</v>
       </c>
       <c r="C14">
-        <v>0.3354822435848916</v>
+        <v>0.6992829976093731</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.09116791811578651</v>
+        <v>0.03451905285727896</v>
       </c>
       <c r="F14">
-        <v>0.7191683204515869</v>
+        <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>0.00241878306289057</v>
+        <v>0.0007736182180057966</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1015,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2715766476447783</v>
+        <v>0.5268039747701323</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.240476983572734</v>
+        <v>1.085059344517703</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.093930609467577</v>
+        <v>5.594370658094647</v>
       </c>
       <c r="C15">
-        <v>0.3334835868823518</v>
+        <v>0.6931061986742293</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.09128125344040861</v>
+        <v>0.03449613160610987</v>
       </c>
       <c r="F15">
-        <v>0.7114413442032514</v>
+        <v>2.428326063099846</v>
       </c>
       <c r="G15">
-        <v>0.002419110774552677</v>
+        <v>0.0007741987692137419</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2700876920446404</v>
+        <v>0.5209806464378204</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.243894626317342</v>
+        <v>1.07983363679304</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.986123810104459</v>
+        <v>5.234681300693751</v>
       </c>
       <c r="C16">
-        <v>0.3220236479608332</v>
+        <v>0.6577899488422077</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.09195026385448202</v>
+        <v>0.0344140716309802</v>
       </c>
       <c r="F16">
-        <v>0.6671810134426437</v>
+        <v>2.26414724522013</v>
       </c>
       <c r="G16">
-        <v>0.002421017344749403</v>
+        <v>0.0007775442063644624</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1109,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2615845604096592</v>
+        <v>0.4878009387057745</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.264224722368766</v>
+        <v>1.052694982626605</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.919977430852327</v>
+        <v>5.014853127889296</v>
       </c>
       <c r="C17">
-        <v>0.314987845751233</v>
+        <v>0.6361908875248332</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.09237809900899663</v>
+        <v>0.03440631465399058</v>
       </c>
       <c r="F17">
-        <v>0.6400460337125793</v>
+        <v>2.164227570872086</v>
       </c>
       <c r="G17">
-        <v>0.002422212527016537</v>
+        <v>0.0007796137632820055</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.2563945134032082</v>
+        <v>0.4676069581561109</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.277359755777837</v>
+        <v>1.038445859321001</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.881928577363169</v>
+        <v>4.88869150074953</v>
       </c>
       <c r="C18">
-        <v>0.3109391167244553</v>
+        <v>0.6237899423882425</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.09263057615183357</v>
+        <v>0.03441696369521452</v>
       </c>
       <c r="F18">
-        <v>0.6244449056556647</v>
+        <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>0.002422909380745618</v>
+        <v>0.0007808107232887381</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.2534190392630222</v>
+        <v>0.4560470860292298</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.28515777241121</v>
+        <v>1.031091354601841</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.869045397523848</v>
+        <v>4.846020550101343</v>
       </c>
       <c r="C19">
-        <v>0.3095679661151678</v>
+        <v>0.6195948263263347</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.09271715902792543</v>
+        <v>0.03442311488764105</v>
       </c>
       <c r="F19">
-        <v>0.619163680173358</v>
+        <v>2.087706772594743</v>
       </c>
       <c r="G19">
-        <v>0.002423146942975808</v>
+        <v>0.0007812171528960003</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1250,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.2524132634103751</v>
+        <v>0.4521422309242809</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.287839739187604</v>
+        <v>1.028741992793329</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.927019171567338</v>
+        <v>5.038224871526893</v>
       </c>
       <c r="C20">
-        <v>0.3157370200570995</v>
+        <v>0.6384877939854903</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.09233189300666922</v>
+        <v>0.03440556460901867</v>
       </c>
       <c r="F20">
-        <v>0.642933953830422</v>
+        <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0.002422084323819896</v>
+        <v>0.0007793927777245955</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.2569459989445875</v>
+        <v>0.4697508463108164</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.275936335792608</v>
+        <v>1.039874745790371</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.121760491200689</v>
+        <v>5.687514793704793</v>
       </c>
       <c r="C21">
-        <v>0.336440536266565</v>
+        <v>0.7022464442147509</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.09111391637682864</v>
+        <v>0.03453093639010696</v>
       </c>
       <c r="F21">
-        <v>0.7228739723491628</v>
+        <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>0.0024186264208174</v>
+        <v>0.0007733401454870796</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.2722911629177389</v>
+        <v>0.5295999518168202</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.238851330985852</v>
+        <v>1.087616413238635</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.248993629461609</v>
+        <v>6.11493234285183</v>
       </c>
       <c r="C22">
-        <v>0.3499522583138344</v>
+        <v>0.7441609676758389</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.09037494781642152</v>
+        <v>0.034759213003273</v>
       </c>
       <c r="F22">
-        <v>0.7751780083420101</v>
+        <v>2.667416158031969</v>
       </c>
       <c r="G22">
-        <v>0.002416449866247155</v>
+        <v>0.0007694373113967549</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.2824060915957745</v>
+        <v>0.5692912434727191</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.216792075719979</v>
+        <v>1.127199687436217</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.181091338076669</v>
+        <v>5.886500262011168</v>
       </c>
       <c r="C23">
-        <v>0.3427426580650774</v>
+        <v>0.721765647660618</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.09076412538550471</v>
+        <v>0.03462338898179596</v>
       </c>
       <c r="F23">
-        <v>0.7472568307830727</v>
+        <v>2.562285531758775</v>
       </c>
       <c r="G23">
-        <v>0.002417603927283056</v>
+        <v>0.0007715157867806831</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.2769997175871026</v>
+        <v>0.5480501636877051</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.228365594037371</v>
+        <v>1.10526100850322</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.923835664051467</v>
+        <v>5.027657825759604</v>
       </c>
       <c r="C24">
-        <v>0.315398330020713</v>
+        <v>0.6374493112314497</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.09235276246623592</v>
+        <v>0.03440585677130414</v>
       </c>
       <c r="F24">
-        <v>0.6416283278902171</v>
+        <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>0.002422142254096518</v>
+        <v>0.000779492662979886</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1485,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.2566966463105302</v>
+        <v>0.4687814399127319</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.276579096235167</v>
+        <v>1.0392261471425</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.646228174407383</v>
+        <v>4.111588864713497</v>
       </c>
       <c r="C25">
-        <v>0.2858307651922019</v>
+        <v>0.5473296388270796</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.09431091522747792</v>
+        <v>0.0347431423609752</v>
       </c>
       <c r="F25">
-        <v>0.5279251897347166</v>
+        <v>1.757113814925091</v>
       </c>
       <c r="G25">
-        <v>0.002427397882168111</v>
+        <v>0.0007883524676644469</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1532,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.2351676659169186</v>
+        <v>0.3853454570994472</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2.337871227421431</v>
+        <v>0.9997298211962686</v>
       </c>
     </row>
   </sheetData>
